--- a/data/trans_orig/FIN_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FIN_TABACO-Estudios-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,69 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -126,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,65 +460,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Edad media en la que dejaron de fumar tabaco en años (tasa de respuesta: 97,57%)</t>
+          <t>Edad media en la que dejaron de fumar tabaco en años (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -589,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>52,61</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>48,33</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>48,26</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>46,12</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>51,39</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>47,8</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>52.18570330637039</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>47.47995474795169</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>48.65319461271149</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>45.685439324131</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>51.19440013398003</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>46.9954480516755</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>49,55; 55,21</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>45,85; 50,84</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>43,72; 52,19</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>40,77; 50,95</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>49,11; 53,87</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>45,47; 50,16</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>48.73999111271535</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>44.50813093565987</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>43.04744031886725</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>40.21420604159383</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>48.49404997705177</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>44.40957177363556</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>55.24686831837407</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>50.47500920056819</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>52.87084746451447</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>51.16215354044166</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>53.93545629609331</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>49.57585712853371</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>42,49</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>43,71</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>39,3</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>39,67</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>41,26</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>42,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>40,72; 44,2</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>42,3; 45,2</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>36,76; 41,12</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>37,82; 41,56</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>39,79; 42,68</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>40,97; 43,28</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>42.55705122350961</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>43.91161669491898</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>40.0848468018285</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>39.69097970613768</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>41.57635013722285</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>42.30837423277163</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>40.35083480652879</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>42.10416141246087</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>37.61126219376091</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>37.44106597647124</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>40.05209871431045</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>41.10550331910028</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>44.45003408224026</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>45.42314187183029</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>42.22723039117656</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>41.87516994391832</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>43.02825472646334</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>43.67337352341418</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>41,43</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>39,39</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>37,6</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>36,52</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>39,98</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>37,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>38,88; 43,75</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>36,78; 42,44</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>35,32; 40,16</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>34,11; 39,11</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>38,19; 41,58</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>36,11; 39,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>41.43580753668693</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>39.3884640068064</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>37.92025077826822</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>36.67425455676941</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>40.13715730951778</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>38.08256065819853</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>39.13438256370634</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>36.52930664376311</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>35.60832645002561</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>33.99869773049421</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>38.29916140852668</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>36.04235667575532</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>43.83211367360585</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>42.3985422730064</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>40.52379367848623</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>39.61066750642534</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>41.73099385223512</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>40.06487868104372</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>43,99</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>43,7</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>39,86</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>39,31</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>42,47</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>42,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>42,72; 45,34</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>42,54; 44,89</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>38,32; 41,41</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>37,81; 40,92</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>41,49; 43,62</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>41,06; 43,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>43.80093749140087</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>43.55911533549564</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>40.34625156996727</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>39.35226713506415</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>42.51832861653244</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>41.92039678164826</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>42.1869790544155</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>42.13649583542524</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>38.72562052173583</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>37.62124924814746</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>41.40528902168685</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>40.87297879273989</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>45.19259280834581</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>44.85686472017829</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>42.08866539275017</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>41.11033930974186</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>43.62829300608075</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>42.93897968807011</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -917,14 +864,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
